--- a/cfs_6_0.15.xlsx
+++ b/cfs_6_0.15.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.71</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -542,7 +542,7 @@
         <v>0.556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.476</v>
+        <v>0.499</v>
       </c>
       <c r="M2" t="n">
         <v>1.607594936708861</v>
@@ -564,7 +564,7 @@
         <v>0.729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.493</v>
       </c>
       <c r="E3" t="n">
         <v>0.637</v>
@@ -576,7 +576,7 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.331</v>
+        <v>0.375</v>
       </c>
       <c r="I3" t="n">
         <v>0.5610000000000001</v>
@@ -619,7 +619,7 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.709</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.578</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -677,7 +677,7 @@
         <v>0.322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.395</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
         <v>0.429</v>
@@ -705,7 +705,7 @@
         <v>0.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.627</v>
+        <v>0.598</v>
       </c>
       <c r="F6" t="n">
         <v>0.5679999999999999</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.578</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3419,7 +3419,7 @@
         <v>0.49</v>
       </c>
       <c r="E65" t="n">
-        <v>0.611</v>
+        <v>0.603</v>
       </c>
       <c r="F65" t="n">
         <v>0.592</v>
@@ -4161,7 +4161,7 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4173,7 +4173,7 @@
         <v>0.288</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4</v>
+        <v>0.382</v>
       </c>
       <c r="L81" t="n">
         <v>0.414</v>
@@ -4299,7 +4299,7 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.771</v>
       </c>
       <c r="H84" t="n">
         <v>0.307</v>
@@ -4891,7 +4891,7 @@
         <v>0.375</v>
       </c>
       <c r="E97" t="n">
-        <v>0.531</v>
+        <v>0.519</v>
       </c>
       <c r="F97" t="n">
         <v>0.581</v>
@@ -4909,7 +4909,7 @@
         <v>0.333</v>
       </c>
       <c r="K97" t="n">
-        <v>0.407</v>
+        <v>0.358</v>
       </c>
       <c r="L97" t="n">
         <v>0.438</v>
